--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H2">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I2">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J2">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2616226666666667</v>
+        <v>0.1934943333333333</v>
       </c>
       <c r="N2">
-        <v>0.784868</v>
+        <v>0.580483</v>
       </c>
       <c r="O2">
-        <v>0.02194068597308638</v>
+        <v>0.01491668734741989</v>
       </c>
       <c r="P2">
-        <v>0.02364079182080194</v>
+        <v>0.01648400032543011</v>
       </c>
       <c r="Q2">
-        <v>9.239343569384443</v>
+        <v>7.742343131574333</v>
       </c>
       <c r="R2">
-        <v>83.15409212446001</v>
+        <v>69.681088184169</v>
       </c>
       <c r="S2">
-        <v>0.01913633374874318</v>
+        <v>0.01381220805798504</v>
       </c>
       <c r="T2">
-        <v>0.02120728163045178</v>
+        <v>0.01541586973517333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H3">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I3">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J3">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.134758</v>
       </c>
       <c r="O3">
-        <v>0.534904871200001</v>
+        <v>0.4917063937351162</v>
       </c>
       <c r="P3">
-        <v>0.5763527502961319</v>
+        <v>0.5433705329855074</v>
       </c>
       <c r="Q3">
-        <v>225.2513840276677</v>
+        <v>255.2148162403326</v>
       </c>
       <c r="R3">
-        <v>2027.26245624901</v>
+        <v>2296.933346162994</v>
       </c>
       <c r="S3">
-        <v>0.4665359210586155</v>
+        <v>0.4552988780639461</v>
       </c>
       <c r="T3">
-        <v>0.5170247759324372</v>
+        <v>0.5081611980748201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H4">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I4">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J4">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.655501333333333</v>
+        <v>1.315062</v>
       </c>
       <c r="N4">
-        <v>4.966504</v>
+        <v>3.945186</v>
       </c>
       <c r="O4">
-        <v>0.1388367275109667</v>
+        <v>0.1013795513209139</v>
       </c>
       <c r="P4">
-        <v>0.1495946925357896</v>
+        <v>0.1120316138592901</v>
       </c>
       <c r="Q4">
-        <v>58.46490976154222</v>
+        <v>52.619945338422</v>
       </c>
       <c r="R4">
-        <v>526.1841878538801</v>
+        <v>473.579508045798</v>
       </c>
       <c r="S4">
-        <v>0.121091289374096</v>
+        <v>0.09387308475777889</v>
       </c>
       <c r="T4">
-        <v>0.1341958763088383</v>
+        <v>0.1047721870529017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H5">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I5">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J5">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.5725295</v>
+        <v>3.7000725</v>
       </c>
       <c r="N5">
-        <v>5.145059</v>
+        <v>7.400145</v>
       </c>
       <c r="O5">
-        <v>0.2157422467829021</v>
+        <v>0.2852425892504325</v>
       </c>
       <c r="P5">
-        <v>0.1549728982768356</v>
+        <v>0.2101422308460885</v>
       </c>
       <c r="Q5">
-        <v>90.85024702068417</v>
+        <v>148.0520406628725</v>
       </c>
       <c r="R5">
-        <v>545.101482124105</v>
+        <v>888.3122439772351</v>
       </c>
       <c r="S5">
-        <v>0.1881671176190929</v>
+        <v>0.2641223146911909</v>
       </c>
       <c r="T5">
-        <v>0.1390204661398994</v>
+        <v>0.1965254302734004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H6">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I6">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J6">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.056181666666667</v>
+        <v>1.384787666666667</v>
       </c>
       <c r="N6">
-        <v>3.168545</v>
+        <v>4.154363</v>
       </c>
       <c r="O6">
-        <v>0.08857546853304375</v>
+        <v>0.1067547783461175</v>
       </c>
       <c r="P6">
-        <v>0.09543886707044098</v>
+        <v>0.1179716219836839</v>
       </c>
       <c r="Q6">
-        <v>37.29961709491944</v>
+        <v>55.40989803166767</v>
       </c>
       <c r="R6">
-        <v>335.696553854275</v>
+        <v>498.689082285009</v>
       </c>
       <c r="S6">
-        <v>0.07725418110804803</v>
+        <v>0.09885031276436158</v>
       </c>
       <c r="T6">
-        <v>0.08561468447402597</v>
+        <v>0.110327294409352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>5.099941</v>
       </c>
       <c r="I7">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J7">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2616226666666667</v>
+        <v>0.1934943333333333</v>
       </c>
       <c r="N7">
-        <v>0.784868</v>
+        <v>0.580483</v>
       </c>
       <c r="O7">
-        <v>0.02194068597308638</v>
+        <v>0.01491668734741989</v>
       </c>
       <c r="P7">
-        <v>0.02364079182080194</v>
+        <v>0.01648400032543011</v>
       </c>
       <c r="Q7">
-        <v>0.4447533880875556</v>
+        <v>0.3289365612781111</v>
       </c>
       <c r="R7">
-        <v>4.002780492788</v>
+        <v>2.960429051503</v>
       </c>
       <c r="S7">
-        <v>0.000921163847454456</v>
+        <v>0.0005868172134767644</v>
       </c>
       <c r="T7">
-        <v>0.001020852865405329</v>
+        <v>0.0006549494246928466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.099941</v>
       </c>
       <c r="I8">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J8">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.134758</v>
       </c>
       <c r="O8">
-        <v>0.534904871200001</v>
+        <v>0.4917063937351162</v>
       </c>
       <c r="P8">
-        <v>0.5763527502961319</v>
+        <v>0.5433705329855074</v>
       </c>
       <c r="Q8">
         <v>10.84290409436422</v>
@@ -948,10 +948,10 @@
         <v>97.58613684927799</v>
       </c>
       <c r="S8">
-        <v>0.02245759452467157</v>
+        <v>0.01934355591828223</v>
       </c>
       <c r="T8">
-        <v>0.02488797165018517</v>
+        <v>0.0215894328408185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.099941</v>
       </c>
       <c r="I9">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J9">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.655501333333333</v>
+        <v>1.315062</v>
       </c>
       <c r="N9">
-        <v>4.966504</v>
+        <v>3.945186</v>
       </c>
       <c r="O9">
-        <v>0.1388367275109667</v>
+        <v>0.1013795513209139</v>
       </c>
       <c r="P9">
-        <v>0.1495946925357896</v>
+        <v>0.1120316138592901</v>
       </c>
       <c r="Q9">
-        <v>2.814319708473778</v>
+        <v>2.235579537114</v>
       </c>
       <c r="R9">
-        <v>25.328877376264</v>
+        <v>20.120215834026</v>
       </c>
       <c r="S9">
-        <v>0.005828959688811298</v>
+        <v>0.003988235753962721</v>
       </c>
       <c r="T9">
-        <v>0.00645977392306353</v>
+        <v>0.004451288497692909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.099941</v>
       </c>
       <c r="I10">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J10">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.5725295</v>
+        <v>3.7000725</v>
       </c>
       <c r="N10">
-        <v>5.145059</v>
+        <v>7.400145</v>
       </c>
       <c r="O10">
-        <v>0.2157422467829021</v>
+        <v>0.2852425892504325</v>
       </c>
       <c r="P10">
-        <v>0.1549728982768356</v>
+        <v>0.2101422308460885</v>
       </c>
       <c r="Q10">
-        <v>4.373249556919833</v>
+        <v>6.2900504819075</v>
       </c>
       <c r="R10">
-        <v>26.239497341519</v>
+        <v>37.740302891445</v>
       </c>
       <c r="S10">
-        <v>0.009057782347770918</v>
+        <v>0.01122134274791168</v>
       </c>
       <c r="T10">
-        <v>0.006692014737292735</v>
+        <v>0.008349461931518486</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.099941</v>
       </c>
       <c r="I11">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J11">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.056181666666667</v>
+        <v>1.384787666666667</v>
       </c>
       <c r="N11">
-        <v>3.168545</v>
+        <v>4.154363</v>
       </c>
       <c r="O11">
-        <v>0.08857546853304375</v>
+        <v>0.1067547783461175</v>
       </c>
       <c r="P11">
-        <v>0.09543886707044098</v>
+        <v>0.1179716219836839</v>
       </c>
       <c r="Q11">
-        <v>1.795488061760556</v>
+        <v>2.354111799175889</v>
       </c>
       <c r="R11">
-        <v>16.159392555845</v>
+        <v>21.187006192583</v>
       </c>
       <c r="S11">
-        <v>0.003718777046627686</v>
+        <v>0.004199695287253841</v>
       </c>
       <c r="T11">
-        <v>0.004121225788815096</v>
+        <v>0.004687299467538667</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H12">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I12">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J12">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2616226666666667</v>
+        <v>0.1934943333333333</v>
       </c>
       <c r="N12">
-        <v>0.784868</v>
+        <v>0.580483</v>
       </c>
       <c r="O12">
-        <v>0.02194068597308638</v>
+        <v>0.01491668734741989</v>
       </c>
       <c r="P12">
-        <v>0.02364079182080194</v>
+        <v>0.01648400032543011</v>
       </c>
       <c r="Q12">
-        <v>0.005523726568888889</v>
+        <v>0.02777572456133333</v>
       </c>
       <c r="R12">
-        <v>0.04971353912</v>
+        <v>0.249981521052</v>
       </c>
       <c r="S12">
-        <v>1.144062609700097E-05</v>
+        <v>4.955141874788114E-05</v>
       </c>
       <c r="T12">
-        <v>1.267873892948438E-05</v>
+        <v>5.530456921902159E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H13">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I13">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J13">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.134758</v>
       </c>
       <c r="O13">
-        <v>0.534904871200001</v>
+        <v>0.4917063937351162</v>
       </c>
       <c r="P13">
-        <v>0.5763527502961319</v>
+        <v>0.5433705329855074</v>
       </c>
       <c r="Q13">
-        <v>0.1346661746355555</v>
+        <v>0.9155854137946666</v>
       </c>
       <c r="R13">
-        <v>1.21199557172</v>
+        <v>8.240268724151999</v>
       </c>
       <c r="S13">
-        <v>0.0002789177437920748</v>
+        <v>0.001633388757805773</v>
       </c>
       <c r="T13">
-        <v>0.0003091024237972024</v>
+        <v>0.001823032799065997</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H14">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I14">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J14">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.655501333333333</v>
+        <v>1.315062</v>
       </c>
       <c r="N14">
-        <v>4.966504</v>
+        <v>3.945186</v>
       </c>
       <c r="O14">
-        <v>0.1388367275109667</v>
+        <v>0.1013795513209139</v>
       </c>
       <c r="P14">
-        <v>0.1495946925357896</v>
+        <v>0.1120316138592901</v>
       </c>
       <c r="Q14">
-        <v>0.03495315148444444</v>
+        <v>0.188774519976</v>
       </c>
       <c r="R14">
-        <v>0.31457836336</v>
+        <v>1.698970679784</v>
       </c>
       <c r="S14">
-        <v>7.239423097037938E-05</v>
+        <v>0.0003367705230373297</v>
       </c>
       <c r="T14">
-        <v>8.022878701672115E-05</v>
+        <v>0.0003758711490584822</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H15">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I15">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J15">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.5725295</v>
+        <v>3.7000725</v>
       </c>
       <c r="N15">
-        <v>5.145059</v>
+        <v>7.400145</v>
       </c>
       <c r="O15">
-        <v>0.2157422467829021</v>
+        <v>0.2852425892504325</v>
       </c>
       <c r="P15">
-        <v>0.1549728982768356</v>
+        <v>0.2101422308460885</v>
       </c>
       <c r="Q15">
-        <v>0.05431467284333333</v>
+        <v>0.53113800723</v>
       </c>
       <c r="R15">
-        <v>0.32588803706</v>
+        <v>3.18682804338</v>
       </c>
       <c r="S15">
-        <v>0.000112495406105249</v>
+        <v>0.0009475411433841445</v>
       </c>
       <c r="T15">
-        <v>8.311316022285782E-05</v>
+        <v>0.0007050367218045947</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H16">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I16">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J16">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.056181666666667</v>
+        <v>1.384787666666667</v>
       </c>
       <c r="N16">
-        <v>3.168545</v>
+        <v>4.154363</v>
       </c>
       <c r="O16">
-        <v>0.08857546853304375</v>
+        <v>0.1067547783461175</v>
       </c>
       <c r="P16">
-        <v>0.09543886707044098</v>
+        <v>0.1179716219836839</v>
       </c>
       <c r="Q16">
-        <v>0.02229951558888888</v>
+        <v>0.1987834999746667</v>
       </c>
       <c r="R16">
-        <v>0.2006956403</v>
+        <v>1.789051499772</v>
       </c>
       <c r="S16">
-        <v>4.618628688712235E-05</v>
+        <v>0.0003546263725961032</v>
       </c>
       <c r="T16">
-        <v>5.118460026567917E-05</v>
+        <v>0.0003958001459033981</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H17">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I17">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J17">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2616226666666667</v>
+        <v>0.1934943333333333</v>
       </c>
       <c r="N17">
-        <v>0.784868</v>
+        <v>0.580483</v>
       </c>
       <c r="O17">
-        <v>0.02194068597308638</v>
+        <v>0.01491668734741989</v>
       </c>
       <c r="P17">
-        <v>0.02364079182080194</v>
+        <v>0.01648400032543011</v>
       </c>
       <c r="Q17">
-        <v>0.8813543086553333</v>
+        <v>0.2479778872303333</v>
       </c>
       <c r="R17">
-        <v>5.288125851932</v>
+        <v>1.487867323382</v>
       </c>
       <c r="S17">
-        <v>0.001825442475936083</v>
+        <v>0.0004423883201762008</v>
       </c>
       <c r="T17">
-        <v>0.001348662120817099</v>
+        <v>0.0003291677761956792</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H18">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I18">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J18">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.134758</v>
       </c>
       <c r="O18">
-        <v>0.534904871200001</v>
+        <v>0.4917063937351162</v>
       </c>
       <c r="P18">
-        <v>0.5763527502961319</v>
+        <v>0.5433705329855074</v>
       </c>
       <c r="Q18">
-        <v>21.48705439434033</v>
+        <v>8.174221917788666</v>
       </c>
       <c r="R18">
-        <v>128.922326366042</v>
+        <v>49.04533150673199</v>
       </c>
       <c r="S18">
-        <v>0.04450353437770142</v>
+        <v>0.01458267244449556</v>
       </c>
       <c r="T18">
-        <v>0.03287982604157889</v>
+        <v>0.0108505257499401</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H19">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I19">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J19">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.655501333333333</v>
+        <v>1.315062</v>
       </c>
       <c r="N19">
-        <v>4.966504</v>
+        <v>3.945186</v>
       </c>
       <c r="O19">
-        <v>0.1388367275109667</v>
+        <v>0.1013795513209139</v>
       </c>
       <c r="P19">
-        <v>0.1495946925357896</v>
+        <v>0.1120316138592901</v>
       </c>
       <c r="Q19">
-        <v>5.577052063982666</v>
+        <v>1.685353212774</v>
       </c>
       <c r="R19">
-        <v>33.462312383896</v>
+        <v>10.112119276644</v>
       </c>
       <c r="S19">
-        <v>0.01155107273899109</v>
+        <v>0.0030066413785118</v>
       </c>
       <c r="T19">
-        <v>0.008534092124645934</v>
+        <v>0.002237150962729877</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H20">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I20">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J20">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.5725295</v>
+        <v>3.7000725</v>
       </c>
       <c r="N20">
-        <v>5.145059</v>
+        <v>7.400145</v>
       </c>
       <c r="O20">
-        <v>0.2157422467829021</v>
+        <v>0.2852425892504325</v>
       </c>
       <c r="P20">
-        <v>0.1549728982768356</v>
+        <v>0.2101422308460885</v>
       </c>
       <c r="Q20">
-        <v>8.666336093335248</v>
+        <v>4.7419278143325</v>
       </c>
       <c r="R20">
-        <v>34.66534437334099</v>
+        <v>18.96771125733</v>
       </c>
       <c r="S20">
-        <v>0.01794953273632743</v>
+        <v>0.008459518320804342</v>
       </c>
       <c r="T20">
-        <v>0.008840908512857067</v>
+        <v>0.004196314574544948</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H21">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I21">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J21">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.056181666666667</v>
+        <v>1.384787666666667</v>
       </c>
       <c r="N21">
-        <v>3.168545</v>
+        <v>4.154363</v>
       </c>
       <c r="O21">
-        <v>0.08857546853304375</v>
+        <v>0.1067547783461175</v>
       </c>
       <c r="P21">
-        <v>0.09543886707044098</v>
+        <v>0.1179716219836839</v>
       </c>
       <c r="Q21">
-        <v>3.558064270575833</v>
+        <v>1.774712023483667</v>
       </c>
       <c r="R21">
-        <v>21.348385623455</v>
+        <v>10.648272140902</v>
       </c>
       <c r="S21">
-        <v>0.00736938775681375</v>
+        <v>0.0031660559723061</v>
       </c>
       <c r="T21">
-        <v>0.005444605487297754</v>
+        <v>0.002355766543067773</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H22">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I22">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J22">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2616226666666667</v>
+        <v>0.1934943333333333</v>
       </c>
       <c r="N22">
-        <v>0.784868</v>
+        <v>0.580483</v>
       </c>
       <c r="O22">
-        <v>0.02194068597308638</v>
+        <v>0.01491668734741989</v>
       </c>
       <c r="P22">
-        <v>0.02364079182080194</v>
+        <v>0.01648400032543011</v>
       </c>
       <c r="Q22">
-        <v>0.02235696498</v>
+        <v>0.01441848824077778</v>
       </c>
       <c r="R22">
-        <v>0.20121268482</v>
+        <v>0.129766394167</v>
       </c>
       <c r="S22">
-        <v>4.630527485566237E-05</v>
+        <v>2.572233703400043E-05</v>
       </c>
       <c r="T22">
-        <v>5.131646519825171E-05</v>
+        <v>2.870882014922548E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H23">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I23">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J23">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.134758</v>
       </c>
       <c r="O23">
-        <v>0.534904871200001</v>
+        <v>0.4917063937351162</v>
       </c>
       <c r="P23">
-        <v>0.5763527502961319</v>
+        <v>0.5433705329855074</v>
       </c>
       <c r="Q23">
-        <v>0.54505358163</v>
+        <v>0.4752840017935555</v>
       </c>
       <c r="R23">
-        <v>4.90548223467</v>
+        <v>4.277556016141999</v>
       </c>
       <c r="S23">
-        <v>0.001128903495220323</v>
+        <v>0.0008478985505863841</v>
       </c>
       <c r="T23">
-        <v>0.001251074248133404</v>
+        <v>0.0009463435208627185</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H24">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I24">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J24">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.655501333333333</v>
+        <v>1.315062</v>
       </c>
       <c r="N24">
-        <v>4.966504</v>
+        <v>3.945186</v>
       </c>
       <c r="O24">
-        <v>0.1388367275109667</v>
+        <v>0.1013795513209139</v>
       </c>
       <c r="P24">
-        <v>0.1495946925357896</v>
+        <v>0.1120316138592901</v>
       </c>
       <c r="Q24">
-        <v>0.14147086644</v>
+        <v>0.09799359834600001</v>
       </c>
       <c r="R24">
-        <v>1.27323779796</v>
+        <v>0.881942385114</v>
       </c>
       <c r="S24">
-        <v>0.0002930114780979051</v>
+        <v>0.000174818907623169</v>
       </c>
       <c r="T24">
-        <v>0.0003247213922251613</v>
+        <v>0.0001951161969071313</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H25">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I25">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J25">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.5725295</v>
+        <v>3.7000725</v>
       </c>
       <c r="N25">
-        <v>5.145059</v>
+        <v>7.400145</v>
       </c>
       <c r="O25">
-        <v>0.2157422467829021</v>
+        <v>0.2852425892504325</v>
       </c>
       <c r="P25">
-        <v>0.1549728982768356</v>
+        <v>0.2101422308460885</v>
       </c>
       <c r="Q25">
-        <v>0.2198355084225</v>
+        <v>0.2757158357675</v>
       </c>
       <c r="R25">
-        <v>1.319013050535</v>
+        <v>1.654295014605</v>
       </c>
       <c r="S25">
-        <v>0.0004553186736054968</v>
+        <v>0.0004918723471414489</v>
       </c>
       <c r="T25">
-        <v>0.0003363957265635135</v>
+        <v>0.0003659873448200726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H26">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I26">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J26">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.056181666666667</v>
+        <v>1.384787666666667</v>
       </c>
       <c r="N26">
-        <v>3.168545</v>
+        <v>4.154363</v>
       </c>
       <c r="O26">
-        <v>0.08857546853304375</v>
+        <v>0.1067547783461175</v>
       </c>
       <c r="P26">
-        <v>0.09543886707044098</v>
+        <v>0.1179716219836839</v>
       </c>
       <c r="Q26">
-        <v>0.090256004325</v>
+        <v>0.1031892993652222</v>
       </c>
       <c r="R26">
-        <v>0.812304038925</v>
+        <v>0.9287036942869999</v>
       </c>
       <c r="S26">
-        <v>0.0001869363346671475</v>
+        <v>0.0001840879495998697</v>
       </c>
       <c r="T26">
-        <v>0.0002071667200364832</v>
+        <v>0.0002054614178220496</v>
       </c>
     </row>
   </sheetData>
